--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
@@ -23906,7 +23906,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26563,7 +26563,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26940,7 +26940,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28073,7 +28073,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28450,7 +28450,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29958,7 +29958,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30712,7 +30712,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31091,7 +31091,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31847,7 +31847,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32224,7 +32224,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32601,7 +32601,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32978,7 +32978,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33355,7 +33355,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33732,7 +33732,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34109,7 +34109,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34863,7 +34863,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35619,7 +35619,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35998,7 +35998,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36375,7 +36375,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36752,7 +36752,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37131,7 +37131,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37508,7 +37508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38262,7 +38262,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39016,7 +39016,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39772,7 +39772,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40149,7 +40149,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40526,7 +40526,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -40903,7 +40903,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41282,7 +41282,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41659,7 +41659,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42036,7 +42036,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42415,7 +42415,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42792,7 +42792,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43169,7 +43169,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43546,7 +43546,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -43923,7 +43923,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44677,7 +44677,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45054,7 +45054,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45431,7 +45431,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45808,7 +45808,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46185,7 +46185,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46564,7 +46564,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -46941,7 +46941,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47699,7 +47699,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48078,7 +48078,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48457,7 +48457,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48834,7 +48834,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49211,7 +49211,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49588,7 +49588,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -49965,7 +49965,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50342,7 +50342,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50719,7 +50719,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51096,7 +51096,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51473,7 +51473,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -51850,7 +51850,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52227,7 +52227,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52614,7 +52614,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53013,7 +53013,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -53394,7 +53394,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -53771,7 +53771,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -54148,7 +54148,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -54525,7 +54525,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -54902,7 +54902,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -55285,7 +55285,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -55666,7 +55666,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -56049,7 +56049,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -56434,7 +56434,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -56821,7 +56821,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -57198,7 +57198,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -57952,7 +57952,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -58329,7 +58329,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -58706,7 +58706,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -59460,7 +59460,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -59837,7 +59837,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -60216,7 +60216,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -60593,7 +60593,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -60976,7 +60976,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -61355,7 +61355,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -61732,7 +61732,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -62109,7 +62109,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -62869,7 +62869,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -63248,7 +63248,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -63625,7 +63625,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -64002,7 +64002,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -64756,7 +64756,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -65133,7 +65133,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -65510,7 +65510,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -65887,7 +65887,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -66264,7 +66264,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -66641,7 +66641,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -67018,7 +67018,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -67395,7 +67395,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -67772,7 +67772,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -68149,7 +68149,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -68526,7 +68526,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -68903,7 +68903,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -69284,7 +69284,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -69661,7 +69661,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -70040,7 +70040,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -70419,7 +70419,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -70796,7 +70796,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -71179,7 +71179,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -71556,7 +71556,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -71933,7 +71933,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -72310,7 +72310,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -72687,7 +72687,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
@@ -23906,7 +23906,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26563,7 +26563,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26940,7 +26940,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28073,7 +28073,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28450,7 +28450,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29958,7 +29958,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30712,7 +30712,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31091,7 +31091,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31847,7 +31847,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32224,7 +32224,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32601,7 +32601,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32978,7 +32978,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33355,7 +33355,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33732,7 +33732,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34109,7 +34109,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34863,7 +34863,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35619,7 +35619,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35998,7 +35998,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36375,7 +36375,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36752,7 +36752,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37131,7 +37131,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37508,7 +37508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38262,7 +38262,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39016,7 +39016,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39772,7 +39772,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40149,7 +40149,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40526,7 +40526,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -40903,7 +40903,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41282,7 +41282,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41659,7 +41659,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42036,7 +42036,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42415,7 +42415,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42792,7 +42792,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43169,7 +43169,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43546,7 +43546,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -43923,7 +43923,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44677,7 +44677,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45054,7 +45054,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45431,7 +45431,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45808,7 +45808,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46185,7 +46185,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46564,7 +46564,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -46941,7 +46941,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47699,7 +47699,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48078,7 +48078,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48457,7 +48457,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48834,7 +48834,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49211,7 +49211,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49588,7 +49588,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -49965,7 +49965,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50342,7 +50342,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50719,7 +50719,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51096,7 +51096,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51473,7 +51473,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -51850,7 +51850,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52227,7 +52227,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52614,7 +52614,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53013,7 +53013,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -53394,7 +53394,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -53771,7 +53771,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -54148,7 +54148,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -54525,7 +54525,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -54902,7 +54902,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -55285,7 +55285,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -55666,7 +55666,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -56049,7 +56049,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -56434,7 +56434,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -56821,7 +56821,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -57198,7 +57198,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -57952,7 +57952,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -58329,7 +58329,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -58706,7 +58706,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -59460,7 +59460,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -59837,7 +59837,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -60216,7 +60216,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -60593,7 +60593,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -60976,7 +60976,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -61355,7 +61355,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -61732,7 +61732,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -62109,7 +62109,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -62869,7 +62869,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -63248,7 +63248,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -63625,7 +63625,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -64002,7 +64002,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -64756,7 +64756,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -65133,7 +65133,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -65510,7 +65510,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -65887,7 +65887,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -66264,7 +66264,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -66641,7 +66641,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -67018,7 +67018,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -67395,7 +67395,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -67772,7 +67772,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -68149,7 +68149,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -68526,7 +68526,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -68903,7 +68903,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -69284,7 +69284,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -69661,7 +69661,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -70040,7 +70040,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -70419,7 +70419,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -70796,7 +70796,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -71179,7 +71179,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -71556,7 +71556,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -71933,7 +71933,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -72310,7 +72310,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -72687,7 +72687,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
@@ -23906,7 +23906,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26563,7 +26563,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26940,7 +26940,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28073,7 +28073,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28450,7 +28450,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29958,7 +29958,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30712,7 +30712,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31091,7 +31091,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31847,7 +31847,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32224,7 +32224,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32601,7 +32601,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32978,7 +32978,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33355,7 +33355,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33732,7 +33732,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34109,7 +34109,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34863,7 +34863,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35619,7 +35619,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35998,7 +35998,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36375,7 +36375,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36752,7 +36752,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37131,7 +37131,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37508,7 +37508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38262,7 +38262,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39016,7 +39016,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39772,7 +39772,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40149,7 +40149,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40526,7 +40526,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -40903,7 +40903,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41282,7 +41282,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41659,7 +41659,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42036,7 +42036,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42415,7 +42415,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42792,7 +42792,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43169,7 +43169,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43546,7 +43546,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -43923,7 +43923,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44677,7 +44677,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45054,7 +45054,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45431,7 +45431,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45808,7 +45808,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46185,7 +46185,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46564,7 +46564,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -46941,7 +46941,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47699,7 +47699,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48078,7 +48078,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48457,7 +48457,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48834,7 +48834,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49211,7 +49211,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49588,7 +49588,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -49965,7 +49965,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50342,7 +50342,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50719,7 +50719,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51096,7 +51096,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51473,7 +51473,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -51850,7 +51850,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52227,7 +52227,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52614,7 +52614,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53013,7 +53013,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -53394,7 +53394,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -53771,7 +53771,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -54148,7 +54148,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -54525,7 +54525,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -54902,7 +54902,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -55285,7 +55285,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -55666,7 +55666,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -56049,7 +56049,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -56434,7 +56434,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -56821,7 +56821,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -57198,7 +57198,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -57952,7 +57952,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -58329,7 +58329,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -58706,7 +58706,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -59460,7 +59460,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -59837,7 +59837,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -60216,7 +60216,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -60593,7 +60593,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -60976,7 +60976,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -61355,7 +61355,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -61732,7 +61732,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -62109,7 +62109,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -62869,7 +62869,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -63248,7 +63248,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -63625,7 +63625,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -64002,7 +64002,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -64756,7 +64756,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -65133,7 +65133,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -65510,7 +65510,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -65887,7 +65887,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -66264,7 +66264,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -66641,7 +66641,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -67018,7 +67018,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -67395,7 +67395,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -67772,7 +67772,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -68149,7 +68149,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -68526,7 +68526,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -68903,7 +68903,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -69284,7 +69284,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -69661,7 +69661,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -70040,7 +70040,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -70419,7 +70419,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -70796,7 +70796,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -71179,7 +71179,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -71556,7 +71556,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -71933,7 +71933,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -72310,7 +72310,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -72687,7 +72687,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q4_Export.xlsx
@@ -23906,7 +23906,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25047,7 +25047,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26563,7 +26563,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26940,7 +26940,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27319,7 +27319,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28073,7 +28073,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28450,7 +28450,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29958,7 +29958,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30335,7 +30335,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30712,7 +30712,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31091,7 +31091,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31847,7 +31847,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32224,7 +32224,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32601,7 +32601,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32978,7 +32978,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33355,7 +33355,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33732,7 +33732,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -34109,7 +34109,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34486,7 +34486,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34863,7 +34863,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35619,7 +35619,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35998,7 +35998,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36375,7 +36375,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36752,7 +36752,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -37131,7 +37131,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37508,7 +37508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -38262,7 +38262,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -39016,7 +39016,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -39772,7 +39772,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -40149,7 +40149,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -40526,7 +40526,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -40903,7 +40903,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -41282,7 +41282,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -41659,7 +41659,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -42036,7 +42036,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -42415,7 +42415,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -42792,7 +42792,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -43169,7 +43169,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -43546,7 +43546,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -43923,7 +43923,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -44677,7 +44677,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -45054,7 +45054,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -45431,7 +45431,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -45808,7 +45808,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46185,7 +46185,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -46564,7 +46564,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -46941,7 +46941,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -47699,7 +47699,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -48078,7 +48078,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -48457,7 +48457,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -48834,7 +48834,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49211,7 +49211,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49588,7 +49588,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -49965,7 +49965,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -50342,7 +50342,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -50719,7 +50719,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -51096,7 +51096,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -51473,7 +51473,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -51850,7 +51850,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -52227,7 +52227,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -52614,7 +52614,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -53013,7 +53013,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -53394,7 +53394,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -53771,7 +53771,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -54148,7 +54148,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -54525,7 +54525,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -54902,7 +54902,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -55285,7 +55285,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -55666,7 +55666,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -56049,7 +56049,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -56434,7 +56434,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -56821,7 +56821,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -57198,7 +57198,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -57575,7 +57575,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -57952,7 +57952,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -58329,7 +58329,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -58706,7 +58706,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -59083,7 +59083,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -59460,7 +59460,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -59837,7 +59837,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -60216,7 +60216,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -60593,7 +60593,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -60976,7 +60976,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -61355,7 +61355,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -61732,7 +61732,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -62109,7 +62109,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -62869,7 +62869,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -63248,7 +63248,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -63625,7 +63625,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -64002,7 +64002,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -64379,7 +64379,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -64756,7 +64756,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -65133,7 +65133,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -65510,7 +65510,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -65887,7 +65887,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -66264,7 +66264,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -66641,7 +66641,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -67018,7 +67018,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -67395,7 +67395,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -67772,7 +67772,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -68149,7 +68149,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -68526,7 +68526,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -68903,7 +68903,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -69284,7 +69284,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -69661,7 +69661,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -70040,7 +70040,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -70419,7 +70419,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -70796,7 +70796,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -71179,7 +71179,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -71556,7 +71556,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -71933,7 +71933,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -72310,7 +72310,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -72687,7 +72687,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
